--- a/Lab2/Data+analyse.xlsx
+++ b/Lab2/Data+analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/olgasa_ntnu_no/Documents/Informatikk - vår 2021/TDT4310 - Python AI/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{843B0352-575E-433F-8ABD-99B9F77D994E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F21F40B4-49BB-44AC-84B4-334DF560F6C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A884383E-2E6F-4BD4-99CF-E8E82AFEF899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B942E82E-3940-4D2A-A6FB-B7BC74ED4B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{B942E82E-3940-4D2A-A6FB-B7BC74ED4B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,7 +252,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -265,30 +265,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -445,7 +445,28 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> and UT perform worse when data size is reduced. This is natural since more data = more training data = better model. LT and RT are not affected by this, since they do not learn from experience. </a:t>
+            <a:t> and UT perform worse when data size is reduced. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Why? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>25% -&gt; overfitting? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>LT and RT are not affected by this, since they do not learn from experience. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -572,21 +593,22 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2a) DT performs better on a</a:t>
+            <a:t>2a) </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> 50/50 split because it doesn't benefit from more training data, but has a bigger "hit" chance with more test data? Worse on chat because chat is chaos compared to brown, not as many nouns presumably. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>Worse on chat because chat is chaos compared to brown, not as many nouns presumably. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Why is 50/50 better?</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -912,16 +934,16 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -939,36 +961,36 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>0.91700000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="D3" s="11">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
       <c r="E3" s="11">
-        <v>0.89500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="F3" s="12">
-        <v>0.88300000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="17">
-        <v>0.90600000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="14">
-        <v>0.90200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="E4" s="14">
-        <v>0.89400000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="F4" s="18">
         <v>0.85899999999999999</v>
@@ -977,152 +999,152 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="19">
-        <v>0.86899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="D5" s="15">
-        <v>0.84899999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="15">
-        <v>0.83899999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="F5" s="20">
-        <v>0.80100000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="21">
-        <v>0.84299999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="D6" s="16">
-        <v>0.82099999999999995</v>
+        <v>0.84</v>
       </c>
       <c r="E6" s="16">
-        <v>0.80400000000000005</v>
+        <v>0.83</v>
       </c>
       <c r="F6" s="22">
-        <v>0.77100000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="23">
-        <v>0.89500000000000002</v>
+        <v>0.83</v>
       </c>
       <c r="D7" s="13">
-        <v>0.88900000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E7" s="13">
-        <v>0.878</v>
+        <v>0.84</v>
       </c>
       <c r="F7" s="24">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="17">
-        <v>0.88800000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="D8" s="14">
-        <v>0.88600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="E8" s="14">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F8" s="18">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="19">
-        <v>0.84899999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="D9" s="15">
-        <v>0.82399999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="E9" s="15">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="F9" s="20">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="21">
-        <v>0.82299999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="D10" s="16">
-        <v>0.79900000000000004</v>
+        <v>0.82</v>
       </c>
       <c r="E10" s="16">
-        <v>0.78200000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="F10" s="22">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="23">
-        <v>0.16800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="13">
-        <v>0.183</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="13">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="24">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="17">
-        <v>0.19600000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D12" s="14">
-        <v>0.20200000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="14">
-        <v>0.192</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="18">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="19">
         <v>0.13300000000000001</v>
       </c>
       <c r="D13" s="15">
-        <v>0.13900000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E13" s="15">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="F13" s="20">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="21">
         <v>0.13100000000000001</v>
@@ -1137,174 +1159,174 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="23">
-        <v>0.57899999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="D15" s="13">
-        <v>0.57699999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="E15" s="13">
         <v>0.51900000000000002</v>
       </c>
       <c r="F15" s="24">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="17">
-        <v>0.54700000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="D16" s="14">
-        <v>0.53100000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="E16" s="14">
-        <v>0.53400000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="18">
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="19">
-        <v>0.59699999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D17" s="15">
-        <v>0.57299999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="E17" s="15">
         <v>0.57099999999999995</v>
       </c>
       <c r="F17" s="20">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="25">
         <v>0.57299999999999995</v>
       </c>
       <c r="D18" s="26">
-        <v>0.56699999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E18" s="26">
-        <v>0.56899999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F18" s="27">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="28">
-        <v>0.91676620355818195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="29">
-        <v>0.90643531402173205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="30">
-        <v>0.86851297405189598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="31">
-        <v>0.84274711168164296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="32">
-        <v>0.89542339850380304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="29">
-        <v>0.88759801556041695</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="30">
-        <v>0.84930139720558795</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="31">
-        <v>0.823262424353566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="32">
-        <v>0.16838498774124599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="29">
-        <v>0.19607117584339601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="30">
-        <v>0.13298403193612701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="31">
         <v>0.131258023106546</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="32">
-        <v>0.106745457974476</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="29">
         <v>0.13114009906938801</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="30">
         <v>8.5578842315369205E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="33">
         <v>8.5732624243535602E-2</v>
